--- a/工数.xlsx
+++ b/工数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aesthetic1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27707907-FF98-48ED-B2DA-97AF016AC999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FF2538-C96A-4849-BFFD-DD4B7D140404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12210" windowHeight="10815" xr2:uid="{81EAF9F0-C331-4606-88DB-807337243A4C}"/>
+    <workbookView xWindow="33705" yWindow="1875" windowWidth="17130" windowHeight="12255" xr2:uid="{81EAF9F0-C331-4606-88DB-807337243A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>要件定義</t>
     <rPh sb="0" eb="4">
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59098FF-1930-480F-BD66-7075651F3AE1}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F28" si="0">E3*2</f>
+        <f t="shared" ref="F3:F29" si="0">E3*2</f>
         <v>4</v>
       </c>
     </row>
@@ -815,10 +815,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -830,10 +827,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -845,10 +842,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -860,42 +857,57 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>10</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D28" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
         <v>21</v>
       </c>
-      <c r="E28">
-        <f>SUM(E2:E27)</f>
-        <v>161</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>322</v>
+      <c r="E29">
+        <f>SUM(E2:E28)</f>
+        <v>169</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/工数.xlsx
+++ b/工数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aesthetic1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FF2538-C96A-4849-BFFD-DD4B7D140404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB4BE33-1413-4926-8DBF-C1B441638C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33705" yWindow="1875" windowWidth="17130" windowHeight="12255" xr2:uid="{81EAF9F0-C331-4606-88DB-807337243A4C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{81EAF9F0-C331-4606-88DB-807337243A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>要件定義</t>
     <rPh sb="0" eb="4">
@@ -104,17 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>予約</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リクルート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お客様操作用ページ（出勤情報リアルタイム更新）</t>
     <rPh sb="1" eb="2">
       <t>キャク</t>
@@ -144,13 +133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ーー下層ページ４</t>
-    <rPh sb="2" eb="4">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ースマホ用</t>
     <rPh sb="4" eb="5">
       <t>ヨウ</t>
@@ -190,6 +172,14 @@
     <rPh sb="0" eb="1">
       <t>ケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムプログラミング</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -554,23 +544,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59098FF-1930-480F-BD66-7075651F3AE1}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -593,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F29" si="0">E3*2</f>
+        <f t="shared" ref="F3:F26" si="0">E3*2</f>
         <v>4</v>
       </c>
     </row>
@@ -639,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -651,27 +641,27 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -683,10 +673,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -698,221 +688,173 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
         <v>12</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
+      <c r="D26" t="s">
+        <v>18</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <f>SUM(E2:E25)</f>
+        <v>170</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29">
-        <f>SUM(E2:E28)</f>
-        <v>169</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>